--- a/Sorting.xlsx
+++ b/Sorting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A423F-AE1B-4753-8F80-918B3ED53F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6079B238-79DF-4D43-A774-74F8ABF8FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{296A9080-DBEF-451E-90E7-37D95D303744}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>## Easy</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>- [First missing Positive](https://leetcode.com/problems/first-missing-positive/)</t>
+  </si>
+  <si>
+    <t>tbd again</t>
+  </si>
+  <si>
+    <t>tbd again with boyre moore majority vote</t>
+  </si>
+  <si>
+    <t>tbd again with hashset</t>
   </si>
 </sst>
 </file>
@@ -564,38 +573,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442044E-538A-44D4-AF30-481F4DF78B15}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="136.140625" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -603,57 +631,57 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>

--- a/Sorting.xlsx
+++ b/Sorting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6079B238-79DF-4D43-A774-74F8ABF8FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0361E2-F18C-4A4B-B76C-C272C1FC1F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{296A9080-DBEF-451E-90E7-37D95D303744}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>- [Missing Number](https://leetcode.com/problems/missing-number/)</t>
   </si>
   <si>
-    <t>- [Intersection of Two Arrays](https://leetcode.com/problems/intersection-of-two-arrays/)</t>
-  </si>
-  <si>
     <t>- [Intersection of Two Arrays II](https://leetcode.com/problems/intersection-of-two-arrays-ii/)</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>tbd again with hashset</t>
+  </si>
+  <si>
+    <t>[Intersection of Two Arrays](https://leetcode.com/problems/intersection-of-two-arrays/)</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,7 +598,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -609,7 +609,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -620,7 +620,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -633,122 +633,125 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -756,12 +759,12 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -769,62 +772,62 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -832,7 +835,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -843,12 +846,12 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
